--- a/individual_case_outputs/avey/81.xlsx
+++ b/individual_case_outputs/avey/81.xlsx
@@ -718,7 +718,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>reflux laryngitis</t>
+          <t>gerd</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -1027,7 +1027,7 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
         <is>
-          <t>acute laryngitis</t>
+          <t>acute bronchitis</t>
         </is>
       </c>
       <c r="S8" t="inlineStr"/>
@@ -1060,7 +1060,7 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
-          <t>reflux laryngitis</t>
+          <t>gerd</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
